--- a/data/tehilim-data/103.xlsx
+++ b/data/tehilim-data/103.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="268">
   <si>
     <t>original</t>
   </si>
@@ -73,103 +73,109 @@
     <t>и не забывай</t>
   </si>
   <si>
-    <t>כָּל־גְּמוּלָיו</t>
-  </si>
-  <si>
-    <t>всех благодеяний Его</t>
+    <t>גְּמוּלָיו</t>
+  </si>
+  <si>
+    <t>воздаяния его (дарованные тобой)</t>
   </si>
   <si>
     <t>ג</t>
   </si>
   <si>
-    <t>הַסֹּלֵחַ</t>
-  </si>
-  <si>
-    <t>Он прощает</t>
-  </si>
-  <si>
-    <t>לְכָל־עֲו‍ֹנֵכִי</t>
-  </si>
-  <si>
-    <t>все беззакония твои</t>
+    <t>הַסֹּלֵחַ</t>
+  </si>
+  <si>
+    <t>прощающего</t>
+  </si>
+  <si>
+    <t>לְכָל</t>
+  </si>
+  <si>
+    <t>все</t>
+  </si>
+  <si>
+    <t>עֲוֹנֵכִי</t>
+  </si>
+  <si>
+    <t>прегрешения твои</t>
   </si>
   <si>
     <t>הָרֹפֵא</t>
   </si>
   <si>
-    <t>исцеляет</t>
-  </si>
-  <si>
-    <t>לְכָל־תַּחֲלֻאָיְכִי</t>
-  </si>
-  <si>
-    <t>все недуги твои</t>
+    <t>исцеляющего</t>
+  </si>
+  <si>
+    <t>תַּחֲלֻאָיְכִי</t>
+  </si>
+  <si>
+    <t>недуги твои</t>
   </si>
   <si>
     <t>ד</t>
   </si>
   <si>
-    <t>הַגּוֹאֵל</t>
-  </si>
-  <si>
-    <t>избавляет</t>
-  </si>
-  <si>
-    <t>מִשָּׁחַת</t>
-  </si>
-  <si>
-    <t>от могилы</t>
-  </si>
-  <si>
-    <t>חַיָּיְכִי</t>
-  </si>
-  <si>
-    <t>жизнь твою</t>
-  </si>
-  <si>
-    <t>הַמְעַטְּרֵכִי</t>
-  </si>
-  <si>
-    <t>венчает тебя</t>
+    <t>הַגֹּאֵל</t>
+  </si>
+  <si>
+    <t>освобождающего</t>
+  </si>
+  <si>
+    <t>מִשַּׁחַת</t>
+  </si>
+  <si>
+    <t>от рва</t>
+  </si>
+  <si>
+    <t>חַיָּיֵכִי</t>
+  </si>
+  <si>
+    <t>юность твою</t>
+  </si>
+  <si>
+    <t>הַמְעַטְּרֵכִי</t>
+  </si>
+  <si>
+    <t>венчающего тебя</t>
   </si>
   <si>
     <t>חֶסֶד</t>
   </si>
   <si>
-    <t>милостью</t>
+    <t>милосердием</t>
   </si>
   <si>
     <t>וְרַחֲמִים</t>
   </si>
   <si>
-    <t>и щедротами</t>
+    <t>и сострадательностью</t>
   </si>
   <si>
     <t>ה</t>
   </si>
   <si>
-    <t>הַמַּשְׂבִּיַע</t>
+    <t>הַמַּשְׂבִּיַע</t>
   </si>
   <si>
     <t>насыщает</t>
   </si>
   <si>
-    <t>בַּטּוֹב</t>
-  </si>
-  <si>
-    <t>благами</t>
+    <t>בַּטּוֹב</t>
+  </si>
+  <si>
+    <t>благом</t>
   </si>
   <si>
     <t>עֶדְיֵךְ</t>
   </si>
   <si>
-    <t>желание твое</t>
-  </si>
-  <si>
-    <t>תִּתְחַדֵּשׁ</t>
-  </si>
-  <si>
-    <t>обновляется</t>
+    <t>украшение твое</t>
+  </si>
+  <si>
+    <t>תִּתְחַדֵּשׁ</t>
+  </si>
+  <si>
+    <t>обновляющего</t>
   </si>
   <si>
     <t>כַּנֶּשֶׁר</t>
@@ -187,16 +193,88 @@
     <t>ו</t>
   </si>
   <si>
-    <t>עֹשֶׂה</t>
-  </si>
-  <si>
-    <t>творит</t>
+    <t>עֹשֵׂה</t>
+  </si>
+  <si>
+    <t>совершает</t>
   </si>
   <si>
     <t>צְדָקוֹת</t>
   </si>
   <si>
-    <t>правду</t>
+    <t>справедливость</t>
+  </si>
+  <si>
+    <t>יְהֹוָה</t>
+  </si>
+  <si>
+    <t>нашему</t>
+  </si>
+  <si>
+    <t>וּמִשְׁפָּטִים</t>
+  </si>
+  <si>
+    <t>и правосудие</t>
+  </si>
+  <si>
+    <t>לְכָל־עֲשׁוּקִים</t>
+  </si>
+  <si>
+    <t>всем обиженным</t>
+  </si>
+  <si>
+    <t>ז</t>
+  </si>
+  <si>
+    <t>יוֹדִיעַ</t>
+  </si>
+  <si>
+    <t>сообщает</t>
+  </si>
+  <si>
+    <t>דְּרָכָיו</t>
+  </si>
+  <si>
+    <t>дороги его</t>
+  </si>
+  <si>
+    <t>לְמֹשֶׁה</t>
+  </si>
+  <si>
+    <t>Моисею</t>
+  </si>
+  <si>
+    <t>לִבְנֵי</t>
+  </si>
+  <si>
+    <t>сынам</t>
+  </si>
+  <si>
+    <t>יִשְׂרָאֵל</t>
+  </si>
+  <si>
+    <t>Израилевым</t>
+  </si>
+  <si>
+    <t>עֲלִילוֹתָיו</t>
+  </si>
+  <si>
+    <t>дела Свои</t>
+  </si>
+  <si>
+    <t>ח</t>
+  </si>
+  <si>
+    <t>רַחוּם</t>
+  </si>
+  <si>
+    <t>сострадателен</t>
+  </si>
+  <si>
+    <t>וְחַנּוּן</t>
+  </si>
+  <si>
+    <t>и милостив</t>
   </si>
   <si>
     <t>יְהוָה</t>
@@ -205,72 +283,6 @@
     <t>Господь</t>
   </si>
   <si>
-    <t>וּמִשְׁפָּטִים</t>
-  </si>
-  <si>
-    <t>и суд</t>
-  </si>
-  <si>
-    <t>לְכָל־עֲשׁוּקִים</t>
-  </si>
-  <si>
-    <t>всем обиженным</t>
-  </si>
-  <si>
-    <t>ז</t>
-  </si>
-  <si>
-    <t>יוֹדִיעַ</t>
-  </si>
-  <si>
-    <t>Он показал</t>
-  </si>
-  <si>
-    <t>דְּרָכָיו</t>
-  </si>
-  <si>
-    <t>пути Свои</t>
-  </si>
-  <si>
-    <t>לְמֹשֶׁה</t>
-  </si>
-  <si>
-    <t>Моисею</t>
-  </si>
-  <si>
-    <t>לִבְנֵי</t>
-  </si>
-  <si>
-    <t>сынам</t>
-  </si>
-  <si>
-    <t>יִשְׂרָאֵל</t>
-  </si>
-  <si>
-    <t>Израилевым</t>
-  </si>
-  <si>
-    <t>עֲלִילוֹתָיו</t>
-  </si>
-  <si>
-    <t>дела Свои</t>
-  </si>
-  <si>
-    <t>ח</t>
-  </si>
-  <si>
-    <t>רַחוּם</t>
-  </si>
-  <si>
-    <t>щедр</t>
-  </si>
-  <si>
-    <t>וְחַנּוּן</t>
-  </si>
-  <si>
-    <t>и милостив</t>
-  </si>
-  <si>
     <t>אֶרֶךְ</t>
   </si>
   <si>
@@ -328,13 +340,13 @@
     <t>כַחֲטָאֵינוּ</t>
   </si>
   <si>
-    <t>по беззакониям нашим</t>
-  </si>
-  <si>
-    <t>עָשָׂה</t>
-  </si>
-  <si>
-    <t>сотворил</t>
+    <t>по грехам нашим</t>
+  </si>
+  <si>
+    <t>עָשָׂה</t>
+  </si>
+  <si>
+    <t>делает</t>
   </si>
   <si>
     <t>לָנוּ</t>
@@ -343,16 +355,16 @@
     <t>нам</t>
   </si>
   <si>
-    <t>כַעֲו‍ֹנֹתֵינוּ</t>
-  </si>
-  <si>
-    <t>по грехам нашим</t>
-  </si>
-  <si>
-    <t>גָּמַל</t>
-  </si>
-  <si>
-    <t>воздал</t>
+    <t>כַעֲוֹנוֹתֵינוּ</t>
+  </si>
+  <si>
+    <t>по прегрешениям нашим</t>
+  </si>
+  <si>
+    <t>גָּמַל</t>
+  </si>
+  <si>
+    <t>воздает</t>
   </si>
   <si>
     <t>עָלֵינוּ</t>
@@ -475,10 +487,13 @@
     <t>יד</t>
   </si>
   <si>
-    <t>כִּי־הוּא</t>
-  </si>
-  <si>
-    <t>ибо Он</t>
+    <t>כִּי</t>
+  </si>
+  <si>
+    <t>הוּא</t>
+  </si>
+  <si>
+    <t>он</t>
   </si>
   <si>
     <t>יָדַע</t>
@@ -487,22 +502,22 @@
     <t>знает</t>
   </si>
   <si>
-    <t>יֵצֶרֵנוּ</t>
-  </si>
-  <si>
-    <t>состав наш</t>
-  </si>
-  <si>
-    <t>זָכוּר</t>
+    <t>יִצְרֵנוּ</t>
+  </si>
+  <si>
+    <t>создание наше</t>
+  </si>
+  <si>
+    <t>זָכָר</t>
   </si>
   <si>
     <t>помнит</t>
   </si>
   <si>
-    <t>כִּי־עָפָר</t>
-  </si>
-  <si>
-    <t>что</t>
+    <t>עָפָר</t>
+  </si>
+  <si>
+    <t>прах</t>
   </si>
   <si>
     <t>אֲנָחְנוּ</t>
@@ -523,7 +538,7 @@
     <t>כֶּחָצִיר</t>
   </si>
   <si>
-    <t>как трава</t>
+    <t>как покос</t>
   </si>
   <si>
     <t>יָמָיו</t>
@@ -553,7 +568,7 @@
     <t>יָצִיץ</t>
   </si>
   <si>
-    <t>он цветет</t>
+    <t>он распускается</t>
   </si>
   <si>
     <t>טז</t>
@@ -628,10 +643,7 @@
     <t>וְצִדְקָתוֹ</t>
   </si>
   <si>
-    <t>и правда Его</t>
-  </si>
-  <si>
-    <t>на сынов</t>
+    <t>и справедливость его</t>
   </si>
   <si>
     <t>בָנִים</t>
@@ -658,10 +670,10 @@
     <t>и помнящих</t>
   </si>
   <si>
-    <t>פִּקּוּדָיו</t>
-  </si>
-  <si>
-    <t>заповеди Его</t>
+    <t>פִּקּוּדָיו</t>
+  </si>
+  <si>
+    <t>предписания его</t>
   </si>
   <si>
     <t>לַעֲשׂוֹתָם</t>
@@ -790,7 +802,7 @@
     <t>כָּל־מַעֲשָׂיו</t>
   </si>
   <si>
-    <t>все дела Его</t>
+    <t>все деяния Его</t>
   </si>
   <si>
     <t>בְּכָל־מְקוֹמוֹת</t>
@@ -809,7 +821,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -817,16 +829,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10.0"/>
       <color rgb="FF0D0D0D"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -849,7 +859,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -869,7 +879,10 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1215,10 +1228,10 @@
       <c r="C14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="2"/>
@@ -1233,325 +1246,325 @@
       <c r="C16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="6">
         <v>4.0</v>
       </c>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="4" t="s">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B24" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="4" t="s">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="4" t="s">
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="4" t="s">
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B27" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="C27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B29" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="6">
         <v>5.0</v>
       </c>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="4" t="s">
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B31" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="4" t="s">
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B32" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="4" t="s">
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B33" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="4" t="s">
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B34" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="4" t="s">
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B35" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="6">
-        <v>6.0</v>
       </c>
       <c r="C35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="4" t="s">
+      <c r="B37" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B38" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="4" t="s">
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B39" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="4" t="s">
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B40" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="C40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" s="6">
-        <v>7.0</v>
+        <v>66</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="C41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="2"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="4" t="s">
+      <c r="B43" s="6">
+        <v>7.0</v>
+      </c>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B44" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="4" t="s">
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B45" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="C45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B48" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="C47" s="2"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B48" s="6">
-        <v>8.0</v>
       </c>
       <c r="C48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="2"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="4" t="s">
+      <c r="B50" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B51" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C50" s="2"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="C51" s="2"/>
     </row>
     <row r="52">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C52" s="2"/>
@@ -1566,29 +1579,29 @@
       <c r="C53" s="2"/>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B54" s="6">
-        <v>9.0</v>
+      <c r="B54" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="C54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C55" s="2"/>
     </row>
     <row r="56">
-      <c r="A56" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B56" s="5" t="s">
+      <c r="A56" s="6" t="s">
         <v>94</v>
+      </c>
+      <c r="B56" s="6">
+        <v>9.0</v>
       </c>
       <c r="C56" s="2"/>
     </row>
@@ -1620,29 +1633,29 @@
       <c r="C59" s="2"/>
     </row>
     <row r="60">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B60" s="6">
-        <v>10.0</v>
+      <c r="B60" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="C60" s="2"/>
     </row>
     <row r="61">
       <c r="A61" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C61" s="2"/>
     </row>
     <row r="62">
-      <c r="A62" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B62" s="5" t="s">
+      <c r="A62" s="6" t="s">
         <v>105</v>
+      </c>
+      <c r="B62" s="6">
+        <v>10.0</v>
       </c>
       <c r="C62" s="2"/>
     </row>
@@ -1656,74 +1669,74 @@
       <c r="C63" s="2"/>
     </row>
     <row r="64">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="7" t="s">
         <v>109</v>
       </c>
       <c r="C64" s="2"/>
     </row>
     <row r="65">
-      <c r="A65" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>96</v>
+      <c r="A65" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="C65" s="2"/>
     </row>
     <row r="66">
-      <c r="A66" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>111</v>
+      <c r="A66" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="C66" s="2"/>
     </row>
     <row r="67">
-      <c r="A67" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>113</v>
+      <c r="A67" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="C67" s="2"/>
     </row>
     <row r="68">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>109</v>
+      <c r="B68" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="C68" s="2"/>
     </row>
     <row r="69">
       <c r="A69" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B69" s="6">
-        <v>11.0</v>
+        <v>116</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="C69" s="2"/>
     </row>
     <row r="70">
       <c r="A70" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C70" s="2"/>
     </row>
     <row r="71">
-      <c r="A71" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B71" s="5" t="s">
+      <c r="A71" s="6" t="s">
         <v>119</v>
+      </c>
+      <c r="B71" s="6">
+        <v>11.0</v>
       </c>
       <c r="C71" s="2"/>
     </row>
@@ -1773,29 +1786,29 @@
       <c r="C76" s="2"/>
     </row>
     <row r="77">
-      <c r="A77" s="6" t="s">
+      <c r="A77" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B77" s="6">
-        <v>12.0</v>
+      <c r="B77" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="C77" s="2"/>
     </row>
     <row r="78">
       <c r="A78" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C78" s="2"/>
     </row>
     <row r="79">
-      <c r="A79" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B79" s="5" t="s">
+      <c r="A79" s="6" t="s">
         <v>134</v>
+      </c>
+      <c r="B79" s="6">
+        <v>12.0</v>
       </c>
       <c r="C79" s="2"/>
     </row>
@@ -1836,29 +1849,29 @@
       <c r="C83" s="2"/>
     </row>
     <row r="84">
-      <c r="A84" s="6" t="s">
+      <c r="A84" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B84" s="6">
-        <v>13.0</v>
+      <c r="B84" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="C84" s="2"/>
     </row>
     <row r="85">
       <c r="A85" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C85" s="2"/>
     </row>
     <row r="86">
-      <c r="A86" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B86" s="5" t="s">
+      <c r="A86" s="6" t="s">
         <v>147</v>
+      </c>
+      <c r="B86" s="6">
+        <v>13.0</v>
       </c>
       <c r="C86" s="2"/>
     </row>
@@ -1882,550 +1895,550 @@
     </row>
     <row r="89">
       <c r="A89" s="4" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="C89" s="2"/>
     </row>
     <row r="90">
       <c r="A90" s="4" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C90" s="2"/>
     </row>
     <row r="91">
-      <c r="A91" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B91" s="6">
-        <v>14.0</v>
+      <c r="A91" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="C91" s="2"/>
     </row>
     <row r="92">
       <c r="A92" s="4" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C92" s="2"/>
     </row>
     <row r="93">
-      <c r="A93" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B93" s="5" t="s">
+      <c r="A93" s="6" t="s">
         <v>157</v>
       </c>
+      <c r="B93" s="6">
+        <v>14.0</v>
+      </c>
       <c r="C93" s="2"/>
     </row>
     <row r="94">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C94" s="2"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C94" s="2"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="4" t="s">
+      <c r="B95" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="C95" s="2"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C95" s="2"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="4" t="s">
+      <c r="B96" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="C96" s="2"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C96" s="2"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="4" t="s">
+      <c r="B97" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>165</v>
       </c>
       <c r="C97" s="2"/>
     </row>
     <row r="98">
       <c r="A98" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B98" s="6">
+      <c r="C98" s="2"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C99" s="2"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C100" s="2"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C101" s="2"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B102" s="6">
         <v>15.0</v>
       </c>
-      <c r="C98" s="7"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C99" s="2"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C100" s="2"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C101" s="2"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C102" s="2"/>
+      <c r="C102" s="8"/>
     </row>
     <row r="103">
       <c r="A103" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C103" s="2"/>
     </row>
     <row r="104">
       <c r="A104" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C104" s="2"/>
     </row>
     <row r="105">
       <c r="A105" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C105" s="2"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B106" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C105" s="2"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="B106" s="6">
-        <v>16.0</v>
       </c>
       <c r="C106" s="2"/>
     </row>
     <row r="107">
       <c r="A107" s="4" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C107" s="2"/>
     </row>
     <row r="108">
       <c r="A108" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B108" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>184</v>
       </c>
       <c r="C108" s="2"/>
     </row>
     <row r="109">
       <c r="A109" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B109" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="C109" s="2"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C109" s="2"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>188</v>
+      <c r="B110" s="6">
+        <v>16.0</v>
       </c>
       <c r="C110" s="2"/>
     </row>
     <row r="111">
       <c r="A111" s="4" t="s">
-        <v>189</v>
+        <v>120</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C111" s="2"/>
     </row>
     <row r="112">
       <c r="A112" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C112" s="2"/>
     </row>
     <row r="113">
       <c r="A113" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C113" s="2"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B114" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C113" s="2"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="B114" s="6">
-        <v>17.0</v>
       </c>
       <c r="C114" s="2"/>
     </row>
     <row r="115">
       <c r="A115" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C115" s="2"/>
     </row>
     <row r="116">
       <c r="A116" s="4" t="s">
-        <v>62</v>
+        <v>196</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C116" s="2"/>
     </row>
     <row r="117">
       <c r="A117" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B117" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="C117" s="2"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C117" s="2"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>202</v>
+      <c r="B118" s="6">
+        <v>17.0</v>
       </c>
       <c r="C118" s="2"/>
     </row>
     <row r="119">
       <c r="A119" s="4" t="s">
-        <v>128</v>
+        <v>201</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C119" s="2"/>
     </row>
     <row r="120">
       <c r="A120" s="4" t="s">
-        <v>204</v>
+        <v>88</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C120" s="2"/>
     </row>
     <row r="121">
       <c r="A121" s="4" t="s">
-        <v>75</v>
+        <v>204</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C121" s="2"/>
     </row>
     <row r="122">
       <c r="A122" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B122" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B122" s="5" t="s">
-        <v>149</v>
-      </c>
       <c r="C122" s="2"/>
     </row>
     <row r="123">
-      <c r="A123" s="6" t="s">
+      <c r="A123" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B123" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B123" s="6">
+      <c r="C123" s="2"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C124" s="2"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C125" s="2"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C126" s="2"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B127" s="6">
         <v>18.0</v>
-      </c>
-      <c r="C123" s="2"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C124" s="2"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C125" s="2"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C126" s="2"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="C127" s="2"/>
     </row>
     <row r="128">
       <c r="A128" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C128" s="2"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C129" s="2"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="B130" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C128" s="2"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="6" t="s">
+      <c r="C130" s="2"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="B129" s="6">
-        <v>19.0</v>
-      </c>
-      <c r="C129" s="2"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C130" s="2"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="4" t="s">
+      <c r="B131" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="C131" s="2"/>
     </row>
     <row r="132">
       <c r="A132" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B132" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="B132" s="5" t="s">
+      <c r="C132" s="2"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C132" s="2"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>225</v>
+      <c r="B133" s="6">
+        <v>19.0</v>
       </c>
       <c r="C133" s="2"/>
     </row>
     <row r="134">
       <c r="A134" s="4" t="s">
-        <v>226</v>
+        <v>88</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>227</v>
+        <v>89</v>
       </c>
       <c r="C134" s="2"/>
     </row>
     <row r="135">
       <c r="A135" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C135" s="2"/>
     </row>
     <row r="136">
       <c r="A136" s="4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C136" s="2"/>
     </row>
     <row r="137">
-      <c r="A137" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="B137" s="6">
-        <v>20.0</v>
+      <c r="A137" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>229</v>
       </c>
       <c r="C137" s="2"/>
     </row>
     <row r="138">
       <c r="A138" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C138" s="2"/>
     </row>
     <row r="139">
       <c r="A139" s="4" t="s">
-        <v>62</v>
+        <v>232</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>10</v>
+        <v>233</v>
       </c>
       <c r="C139" s="2"/>
     </row>
     <row r="140">
       <c r="A140" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B140" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="B140" s="5" t="s">
+      <c r="C140" s="2"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="C140" s="2"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>238</v>
+      <c r="B141" s="6">
+        <v>20.0</v>
       </c>
       <c r="C141" s="2"/>
     </row>
     <row r="142">
       <c r="A142" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C142" s="2"/>
     </row>
     <row r="143">
       <c r="A143" s="4" t="s">
-        <v>241</v>
+        <v>88</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>242</v>
+        <v>10</v>
       </c>
       <c r="C143" s="2"/>
     </row>
     <row r="144">
       <c r="A144" s="4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C144" s="2"/>
     </row>
     <row r="145">
       <c r="A145" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C145" s="2"/>
     </row>
     <row r="146">
       <c r="A146" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C146" s="2"/>
     </row>
     <row r="147">
-      <c r="A147" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="B147" s="6">
-        <v>21.0</v>
+      <c r="A147" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="C147" s="2"/>
     </row>
     <row r="148">
       <c r="A148" s="4" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C148" s="2"/>
     </row>
     <row r="149">
       <c r="A149" s="4" t="s">
-        <v>62</v>
+        <v>249</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="C149" s="2"/>
     </row>
@@ -2439,112 +2452,148 @@
       <c r="C150" s="2"/>
     </row>
     <row r="151">
-      <c r="A151" s="4" t="s">
+      <c r="A151" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="B151" s="5" t="s">
-        <v>254</v>
+      <c r="B151" s="6">
+        <v>21.0</v>
       </c>
       <c r="C151" s="2"/>
     </row>
     <row r="152">
       <c r="A152" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="C152" s="2"/>
     </row>
     <row r="153">
       <c r="A153" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C153" s="2"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="B153" s="5" t="s">
+      <c r="B154" s="5" t="s">
         <v>256</v>
-      </c>
-      <c r="C153" s="2"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="B154" s="6">
-        <v>22.0</v>
       </c>
       <c r="C154" s="2"/>
     </row>
     <row r="155">
       <c r="A155" s="4" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="C155" s="2"/>
     </row>
     <row r="156">
       <c r="A156" s="4" t="s">
-        <v>62</v>
+        <v>243</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="C156" s="2"/>
     </row>
     <row r="157">
       <c r="A157" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C157" s="2"/>
     </row>
     <row r="158">
-      <c r="A158" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="B158" s="5" t="s">
+      <c r="A158" s="6" t="s">
         <v>261</v>
+      </c>
+      <c r="B158" s="6">
+        <v>22.0</v>
       </c>
       <c r="C158" s="2"/>
     </row>
     <row r="159">
       <c r="A159" s="4" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="C159" s="2"/>
     </row>
     <row r="160">
       <c r="A160" s="4" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C160" s="2"/>
     </row>
     <row r="161">
       <c r="A161" s="4" t="s">
-        <v>7</v>
+        <v>262</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>8</v>
+        <v>263</v>
       </c>
       <c r="C161" s="2"/>
     </row>
     <row r="162">
       <c r="A162" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C162" s="2"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C163" s="2"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C164" s="2"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165" s="2"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B162" s="5" t="s">
+      <c r="B166" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C162" s="2"/>
+      <c r="C166" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
